--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>45.11331099999999</v>
+        <v>63.64628466666667</v>
       </c>
       <c r="H2">
-        <v>135.339933</v>
+        <v>190.938854</v>
       </c>
       <c r="I2">
-        <v>0.3130631765642908</v>
+        <v>0.4497938828479854</v>
       </c>
       <c r="J2">
-        <v>0.3130631765642909</v>
+        <v>0.4497938828479855</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N2">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O2">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P2">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q2">
-        <v>6341.126708442362</v>
+        <v>10483.23856876798</v>
       </c>
       <c r="R2">
-        <v>57070.14037598126</v>
+        <v>94349.14711891183</v>
       </c>
       <c r="S2">
-        <v>0.1673107411837806</v>
+        <v>0.2072108351109973</v>
       </c>
       <c r="T2">
-        <v>0.1673107411837806</v>
+        <v>0.2072108351109974</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>45.11331099999999</v>
+        <v>63.64628466666667</v>
       </c>
       <c r="H3">
-        <v>135.339933</v>
+        <v>190.938854</v>
       </c>
       <c r="I3">
-        <v>0.3130631765642908</v>
+        <v>0.4497938828479854</v>
       </c>
       <c r="J3">
-        <v>0.3130631765642909</v>
+        <v>0.4497938828479855</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.995073</v>
       </c>
       <c r="O3">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P3">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q3">
-        <v>75.1147605722343</v>
+        <v>105.9726126962602</v>
       </c>
       <c r="R3">
-        <v>676.0328451501089</v>
+        <v>953.7535142663419</v>
       </c>
       <c r="S3">
-        <v>0.001981904296037924</v>
+        <v>0.002094645984791988</v>
       </c>
       <c r="T3">
-        <v>0.001981904296037925</v>
+        <v>0.002094645984791988</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>45.11331099999999</v>
+        <v>63.64628466666667</v>
       </c>
       <c r="H4">
-        <v>135.339933</v>
+        <v>190.938854</v>
       </c>
       <c r="I4">
-        <v>0.3130631765642908</v>
+        <v>0.4497938828479854</v>
       </c>
       <c r="J4">
-        <v>0.3130631765642909</v>
+        <v>0.4497938828479855</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N4">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O4">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P4">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q4">
-        <v>1815.340205840729</v>
+        <v>2561.109204412665</v>
       </c>
       <c r="R4">
-        <v>16338.06185256656</v>
+        <v>23049.98283971399</v>
       </c>
       <c r="S4">
-        <v>0.04789778367550338</v>
+        <v>0.05062267481328325</v>
       </c>
       <c r="T4">
-        <v>0.0478977836755034</v>
+        <v>0.05062267481328325</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>45.11331099999999</v>
+        <v>63.64628466666667</v>
       </c>
       <c r="H5">
-        <v>135.339933</v>
+        <v>190.938854</v>
       </c>
       <c r="I5">
-        <v>0.3130631765642908</v>
+        <v>0.4497938828479854</v>
       </c>
       <c r="J5">
-        <v>0.3130631765642909</v>
+        <v>0.4497938828479855</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N5">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O5">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P5">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q5">
-        <v>223.428770531643</v>
+        <v>192.8256905397998</v>
       </c>
       <c r="R5">
-        <v>2010.858934784787</v>
+        <v>1735.431214858198</v>
       </c>
       <c r="S5">
-        <v>0.005895172091366797</v>
+        <v>0.003811376809323375</v>
       </c>
       <c r="T5">
-        <v>0.005895172091366798</v>
+        <v>0.003811376809323375</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>45.11331099999999</v>
+        <v>63.64628466666667</v>
       </c>
       <c r="H6">
-        <v>135.339933</v>
+        <v>190.938854</v>
       </c>
       <c r="I6">
-        <v>0.3130631765642908</v>
+        <v>0.4497938828479854</v>
       </c>
       <c r="J6">
-        <v>0.3130631765642909</v>
+        <v>0.4497938828479855</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N6">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O6">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P6">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q6">
-        <v>977.5459900261018</v>
+        <v>1553.392911891123</v>
       </c>
       <c r="R6">
-        <v>8797.913910234916</v>
+        <v>13980.53620702011</v>
       </c>
       <c r="S6">
-        <v>0.0257925683640337</v>
+        <v>0.03070423709400441</v>
       </c>
       <c r="T6">
-        <v>0.02579256836403371</v>
+        <v>0.03070423709400441</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.11331099999999</v>
+        <v>63.64628466666667</v>
       </c>
       <c r="H7">
-        <v>135.339933</v>
+        <v>190.938854</v>
       </c>
       <c r="I7">
-        <v>0.3130631765642908</v>
+        <v>0.4497938828479854</v>
       </c>
       <c r="J7">
-        <v>0.3130631765642909</v>
+        <v>0.4497938828479855</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N7">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O7">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P7">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q7">
-        <v>2432.630798208953</v>
+        <v>7859.493909981724</v>
       </c>
       <c r="R7">
-        <v>21893.67718388058</v>
+        <v>70735.44518983552</v>
       </c>
       <c r="S7">
-        <v>0.06418500695356846</v>
+        <v>0.1553501130355851</v>
       </c>
       <c r="T7">
-        <v>0.06418500695356848</v>
+        <v>0.155350113035585</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>186.453754</v>
       </c>
       <c r="I8">
-        <v>0.431297719864963</v>
+        <v>0.4392283509947279</v>
       </c>
       <c r="J8">
-        <v>0.4312977198649631</v>
+        <v>0.439228350994728</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N8">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O8">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P8">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q8">
-        <v>8735.979493788742</v>
+        <v>10236.99024204041</v>
       </c>
       <c r="R8">
-        <v>78623.81544409868</v>
+        <v>92132.91217836365</v>
       </c>
       <c r="S8">
-        <v>0.2304989745948692</v>
+        <v>0.2023435108493972</v>
       </c>
       <c r="T8">
-        <v>0.2304989745948693</v>
+        <v>0.2023435108493973</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>186.453754</v>
       </c>
       <c r="I9">
-        <v>0.431297719864963</v>
+        <v>0.4392283509947279</v>
       </c>
       <c r="J9">
-        <v>0.4312977198649631</v>
+        <v>0.439228350994728</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>4.995073</v>
       </c>
       <c r="O9">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P9">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q9">
         <v>103.4833458171158</v>
@@ -1013,10 +1013,10 @@
         <v>931.350112354042</v>
       </c>
       <c r="S9">
-        <v>0.002730409923174696</v>
+        <v>0.002045443339497016</v>
       </c>
       <c r="T9">
-        <v>0.002730409923174696</v>
+        <v>0.002045443339497016</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>186.453754</v>
       </c>
       <c r="I10">
-        <v>0.431297719864963</v>
+        <v>0.4392283509947279</v>
       </c>
       <c r="J10">
-        <v>0.4312977198649631</v>
+        <v>0.439228350994728</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N10">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O10">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P10">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q10">
-        <v>2500.939587181093</v>
+        <v>2500.949469230055</v>
       </c>
       <c r="R10">
-        <v>22508.45628462984</v>
+        <v>22508.54522307049</v>
       </c>
       <c r="S10">
-        <v>0.06598733556767408</v>
+        <v>0.04943356241395433</v>
       </c>
       <c r="T10">
-        <v>0.06598733556767411</v>
+        <v>0.04943356241395433</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>186.453754</v>
       </c>
       <c r="I11">
-        <v>0.431297719864963</v>
+        <v>0.4392283509947279</v>
       </c>
       <c r="J11">
-        <v>0.4312977198649631</v>
+        <v>0.439228350994728</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N11">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O11">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P11">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q11">
-        <v>307.8110953197341</v>
+        <v>188.2962692799443</v>
       </c>
       <c r="R11">
-        <v>2770.299857877606</v>
+        <v>1694.666423519498</v>
       </c>
       <c r="S11">
-        <v>0.008121601234362742</v>
+        <v>0.003721848639601061</v>
       </c>
       <c r="T11">
-        <v>0.008121601234362742</v>
+        <v>0.003721848639601062</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>186.453754</v>
       </c>
       <c r="I12">
-        <v>0.431297719864963</v>
+        <v>0.4392283509947279</v>
       </c>
       <c r="J12">
-        <v>0.4312977198649631</v>
+        <v>0.439228350994728</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N12">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O12">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P12">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q12">
-        <v>1346.735701044076</v>
+        <v>1516.904149110957</v>
       </c>
       <c r="R12">
-        <v>12120.62130939669</v>
+        <v>13652.13734199861</v>
       </c>
       <c r="S12">
-        <v>0.03553364546719352</v>
+        <v>0.0299830031968411</v>
       </c>
       <c r="T12">
-        <v>0.03553364546719352</v>
+        <v>0.0299830031968411</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>186.453754</v>
       </c>
       <c r="I13">
-        <v>0.431297719864963</v>
+        <v>0.4392283509947279</v>
       </c>
       <c r="J13">
-        <v>0.4312977198649631</v>
+        <v>0.439228350994728</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N13">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O13">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P13">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q13">
-        <v>3351.362265134829</v>
+        <v>7674.876607650692</v>
       </c>
       <c r="R13">
-        <v>30162.26038621346</v>
+        <v>69073.88946885623</v>
       </c>
       <c r="S13">
-        <v>0.08842575307768881</v>
+        <v>0.1517009825554372</v>
       </c>
       <c r="T13">
-        <v>0.08842575307768884</v>
+        <v>0.1517009825554372</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.04294166666666666</v>
+        <v>0.01570333333333333</v>
       </c>
       <c r="H14">
-        <v>0.128825</v>
+        <v>0.04711</v>
       </c>
       <c r="I14">
-        <v>0.0002979930817676315</v>
+        <v>0.0001109768356573911</v>
       </c>
       <c r="J14">
-        <v>0.0002979930817676315</v>
+        <v>0.0001109768356573911</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N14">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O14">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P14">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q14">
-        <v>6.035880394702777</v>
+        <v>2.586510595557778</v>
       </c>
       <c r="R14">
-        <v>54.322923552325</v>
+        <v>23.27859536002</v>
       </c>
       <c r="S14">
-        <v>0.0001592568117571075</v>
+        <v>5.112475663061791E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001592568117571075</v>
+        <v>5.112475663061791E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.04294166666666666</v>
+        <v>0.01570333333333333</v>
       </c>
       <c r="H15">
-        <v>0.128825</v>
+        <v>0.04711</v>
       </c>
       <c r="I15">
-        <v>0.0002979930817676315</v>
+        <v>0.0001109768356573911</v>
       </c>
       <c r="J15">
-        <v>0.0002979930817676315</v>
+        <v>0.0001109768356573911</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.995073</v>
       </c>
       <c r="O15">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P15">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q15">
-        <v>0.07149891991388888</v>
+        <v>0.02614643211444444</v>
       </c>
       <c r="R15">
-        <v>0.6434902792249999</v>
+        <v>0.23531788903</v>
       </c>
       <c r="S15">
-        <v>1.886500275843092E-06</v>
+        <v>5.168082361254277E-07</v>
       </c>
       <c r="T15">
-        <v>1.886500275843092E-06</v>
+        <v>5.168082361254277E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.04294166666666666</v>
+        <v>0.01570333333333333</v>
       </c>
       <c r="H16">
-        <v>0.128825</v>
+        <v>0.04711</v>
       </c>
       <c r="I16">
-        <v>0.0002979930817676315</v>
+        <v>0.0001109768356573911</v>
       </c>
       <c r="J16">
-        <v>0.0002979930817676315</v>
+        <v>0.0001109768356573911</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N16">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O16">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P16">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q16">
-        <v>1.727954173122222</v>
+        <v>0.6318978672611111</v>
       </c>
       <c r="R16">
-        <v>15.5515875581</v>
+        <v>5.68708080535</v>
       </c>
       <c r="S16">
-        <v>4.559210164524556E-05</v>
+        <v>1.24900415001641E-05</v>
       </c>
       <c r="T16">
-        <v>4.559210164524558E-05</v>
+        <v>1.24900415001641E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.04294166666666666</v>
+        <v>0.01570333333333333</v>
       </c>
       <c r="H17">
-        <v>0.128825</v>
+        <v>0.04711</v>
       </c>
       <c r="I17">
-        <v>0.0002979930817676315</v>
+        <v>0.0001109768356573911</v>
       </c>
       <c r="J17">
-        <v>0.0002979930817676315</v>
+        <v>0.0001109768356573911</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N17">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O17">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P17">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q17">
-        <v>0.212673456575</v>
+        <v>0.04757553578555555</v>
       </c>
       <c r="R17">
-        <v>1.914061109175</v>
+        <v>0.42817982207</v>
       </c>
       <c r="S17">
-        <v>5.611392940990504E-06</v>
+        <v>9.403741445270443E-07</v>
       </c>
       <c r="T17">
-        <v>5.611392940990504E-06</v>
+        <v>9.403741445270444E-07</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.04294166666666666</v>
+        <v>0.01570333333333333</v>
       </c>
       <c r="H18">
-        <v>0.128825</v>
+        <v>0.04711</v>
       </c>
       <c r="I18">
-        <v>0.0002979930817676315</v>
+        <v>0.0001109768356573911</v>
       </c>
       <c r="J18">
-        <v>0.0002979930817676315</v>
+        <v>0.0001109768356573911</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N18">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O18">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P18">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q18">
-        <v>0.9304893195499999</v>
+        <v>0.3832658390166667</v>
       </c>
       <c r="R18">
-        <v>8.37440387595</v>
+        <v>3.44939255115</v>
       </c>
       <c r="S18">
-        <v>2.455097727510063E-05</v>
+        <v>7.575601189575318E-06</v>
       </c>
       <c r="T18">
-        <v>2.455097727510063E-05</v>
+        <v>7.575601189575318E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.04294166666666666</v>
+        <v>0.01570333333333333</v>
       </c>
       <c r="H19">
-        <v>0.128825</v>
+        <v>0.04711</v>
       </c>
       <c r="I19">
-        <v>0.0002979930817676315</v>
+        <v>0.0001109768356573911</v>
       </c>
       <c r="J19">
-        <v>0.0002979930817676315</v>
+        <v>0.0001109768356573911</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N19">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O19">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P19">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q19">
-        <v>2.315529907786111</v>
+        <v>1.939158795303333</v>
       </c>
       <c r="R19">
-        <v>20.839769170075</v>
+        <v>17.45242915773</v>
       </c>
       <c r="S19">
-        <v>6.109529787334429E-05</v>
+        <v>3.832925395638131E-05</v>
       </c>
       <c r="T19">
-        <v>6.10952978733443E-05</v>
+        <v>3.832925395638131E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>36.42067833333333</v>
+        <v>15.408436</v>
       </c>
       <c r="H20">
-        <v>109.262035</v>
+        <v>46.225308</v>
       </c>
       <c r="I20">
-        <v>0.2527407764785781</v>
+        <v>0.108892770306268</v>
       </c>
       <c r="J20">
-        <v>0.2527407764785781</v>
+        <v>0.108892770306268</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N20">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O20">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P20">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q20">
-        <v>5119.290315869037</v>
+        <v>2537.937782316317</v>
       </c>
       <c r="R20">
-        <v>46073.61284282133</v>
+        <v>22841.44004084686</v>
       </c>
       <c r="S20">
-        <v>0.1350725661959518</v>
+        <v>0.05016467038156135</v>
       </c>
       <c r="T20">
-        <v>0.1350725661959518</v>
+        <v>0.05016467038156135</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>36.42067833333333</v>
+        <v>15.408436</v>
       </c>
       <c r="H21">
-        <v>109.262035</v>
+        <v>46.225308</v>
       </c>
       <c r="I21">
-        <v>0.2527407764785781</v>
+        <v>0.108892770306268</v>
       </c>
       <c r="J21">
-        <v>0.2527407764785781</v>
+        <v>0.108892770306268</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>4.995073</v>
       </c>
       <c r="O21">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P21">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q21">
-        <v>60.64131566150611</v>
+        <v>25.65542087860933</v>
       </c>
       <c r="R21">
-        <v>545.7718409535549</v>
+        <v>230.898787907484</v>
       </c>
       <c r="S21">
-        <v>0.001600022194191171</v>
+        <v>0.000507102948245269</v>
       </c>
       <c r="T21">
-        <v>0.001600022194191171</v>
+        <v>0.0005071029482452689</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>36.42067833333333</v>
+        <v>15.408436</v>
       </c>
       <c r="H22">
-        <v>109.262035</v>
+        <v>46.225308</v>
       </c>
       <c r="I22">
-        <v>0.2527407764785781</v>
+        <v>0.108892770306268</v>
       </c>
       <c r="J22">
-        <v>0.2527407764785781</v>
+        <v>0.108892770306268</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N22">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O22">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P22">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q22">
-        <v>1465.552410961198</v>
+        <v>620.0312786815533</v>
       </c>
       <c r="R22">
-        <v>13189.97169865078</v>
+        <v>5580.28150813398</v>
       </c>
       <c r="S22">
-        <v>0.03866862647534546</v>
+        <v>0.01225548748201799</v>
       </c>
       <c r="T22">
-        <v>0.03866862647534547</v>
+        <v>0.01225548748201799</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>36.42067833333333</v>
+        <v>15.408436</v>
       </c>
       <c r="H23">
-        <v>109.262035</v>
+        <v>46.225308</v>
       </c>
       <c r="I23">
-        <v>0.2527407764785781</v>
+        <v>0.108892770306268</v>
       </c>
       <c r="J23">
-        <v>0.2527407764785781</v>
+        <v>0.108892770306268</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N23">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O23">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P23">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q23">
-        <v>180.377524982485</v>
+        <v>46.68210135751067</v>
       </c>
       <c r="R23">
-        <v>1623.397724842365</v>
+        <v>420.138912217596</v>
       </c>
       <c r="S23">
-        <v>0.004759264210496856</v>
+        <v>0.0009227145927828304</v>
       </c>
       <c r="T23">
-        <v>0.004759264210496855</v>
+        <v>0.0009227145927828304</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>36.42067833333333</v>
+        <v>15.408436</v>
       </c>
       <c r="H24">
-        <v>109.262035</v>
+        <v>46.225308</v>
       </c>
       <c r="I24">
-        <v>0.2527407764785781</v>
+        <v>0.108892770306268</v>
       </c>
       <c r="J24">
-        <v>0.2527407764785781</v>
+        <v>0.108892770306268</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N24">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O24">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P24">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q24">
-        <v>789.18809702929</v>
+        <v>376.06838154158</v>
       </c>
       <c r="R24">
-        <v>7102.69287326361</v>
+        <v>3384.61543387422</v>
       </c>
       <c r="S24">
-        <v>0.02082274200129051</v>
+        <v>0.007433336834499798</v>
       </c>
       <c r="T24">
-        <v>0.02082274200129051</v>
+        <v>0.007433336834499797</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>36.42067833333333</v>
+        <v>15.408436</v>
       </c>
       <c r="H25">
-        <v>109.262035</v>
+        <v>46.225308</v>
       </c>
       <c r="I25">
-        <v>0.2527407764785781</v>
+        <v>0.108892770306268</v>
       </c>
       <c r="J25">
-        <v>0.2527407764785781</v>
+        <v>0.108892770306268</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N25">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O25">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P25">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q25">
-        <v>1963.900716693754</v>
+        <v>1902.742784415316</v>
       </c>
       <c r="R25">
-        <v>17675.10645024379</v>
+        <v>17124.68505973784</v>
       </c>
       <c r="S25">
-        <v>0.05181755540130231</v>
+        <v>0.03760945806716078</v>
       </c>
       <c r="T25">
-        <v>0.05181755540130231</v>
+        <v>0.03760945806716078</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.2238356666666667</v>
+        <v>0.2187516666666667</v>
       </c>
       <c r="H26">
-        <v>0.6715070000000001</v>
+        <v>0.656255</v>
       </c>
       <c r="I26">
-        <v>0.001553304407983986</v>
+        <v>0.001545937238045876</v>
       </c>
       <c r="J26">
-        <v>0.001553304407983986</v>
+        <v>0.001545937238045876</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N26">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O26">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P26">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q26">
-        <v>31.46233988904078</v>
+        <v>36.03078987237889</v>
       </c>
       <c r="R26">
-        <v>283.1610590013671</v>
+        <v>324.27710885141</v>
       </c>
       <c r="S26">
-        <v>0.0008301343985451579</v>
+        <v>0.0007121816421699461</v>
       </c>
       <c r="T26">
-        <v>0.000830134398545158</v>
+        <v>0.0007121816421699461</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.2238356666666667</v>
+        <v>0.2187516666666667</v>
       </c>
       <c r="H27">
-        <v>0.6715070000000001</v>
+        <v>0.656255</v>
       </c>
       <c r="I27">
-        <v>0.001553304407983986</v>
+        <v>0.001545937238045876</v>
       </c>
       <c r="J27">
-        <v>0.001553304407983986</v>
+        <v>0.001545937238045876</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>4.995073</v>
       </c>
       <c r="O27">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P27">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q27">
-        <v>0.3726918316678889</v>
+        <v>0.3642268479572222</v>
       </c>
       <c r="R27">
-        <v>3.354226485011</v>
+        <v>3.278041631615</v>
       </c>
       <c r="S27">
-        <v>9.833480618906016E-06</v>
+        <v>7.199278051337139E-06</v>
       </c>
       <c r="T27">
-        <v>9.833480618906018E-06</v>
+        <v>7.199278051337138E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.2238356666666667</v>
+        <v>0.2187516666666667</v>
       </c>
       <c r="H28">
-        <v>0.6715070000000001</v>
+        <v>0.656255</v>
       </c>
       <c r="I28">
-        <v>0.001553304407983986</v>
+        <v>0.001545937238045876</v>
       </c>
       <c r="J28">
-        <v>0.001553304407983986</v>
+        <v>0.001545937238045876</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N28">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O28">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P28">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q28">
-        <v>9.007050828106221</v>
+        <v>8.802507639130555</v>
       </c>
       <c r="R28">
-        <v>81.063457452956</v>
+        <v>79.22256875217501</v>
       </c>
       <c r="S28">
-        <v>0.0002376511965805854</v>
+        <v>0.0001739896451855273</v>
       </c>
       <c r="T28">
-        <v>0.0002376511965805855</v>
+        <v>0.0001739896451855273</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.2238356666666667</v>
+        <v>0.2187516666666667</v>
       </c>
       <c r="H29">
-        <v>0.6715070000000001</v>
+        <v>0.656255</v>
       </c>
       <c r="I29">
-        <v>0.001553304407983986</v>
+        <v>0.001545937238045876</v>
       </c>
       <c r="J29">
-        <v>0.001553304407983986</v>
+        <v>0.001545937238045876</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N29">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O29">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P29">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q29">
-        <v>1.108571432597</v>
+        <v>0.6627400389927778</v>
       </c>
       <c r="R29">
-        <v>9.977142893373001</v>
+        <v>5.964660350935</v>
       </c>
       <c r="S29">
-        <v>2.924967700078177E-05</v>
+        <v>1.309966534104427E-05</v>
       </c>
       <c r="T29">
-        <v>2.924967700078177E-05</v>
+        <v>1.309966534104427E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.2238356666666667</v>
+        <v>0.2187516666666667</v>
       </c>
       <c r="H30">
-        <v>0.6715070000000001</v>
+        <v>0.656255</v>
       </c>
       <c r="I30">
-        <v>0.001553304407983986</v>
+        <v>0.001545937238045876</v>
       </c>
       <c r="J30">
-        <v>0.001553304407983986</v>
+        <v>0.001545937238045876</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N30">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O30">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P30">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q30">
-        <v>4.850223881258001</v>
+        <v>5.338996459008333</v>
       </c>
       <c r="R30">
-        <v>43.652014931322</v>
+        <v>48.050968131075</v>
       </c>
       <c r="S30">
-        <v>0.0001279732435247119</v>
+        <v>0.0001055301668152144</v>
       </c>
       <c r="T30">
-        <v>0.0001279732435247118</v>
+        <v>0.0001055301668152144</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.2238356666666667</v>
+        <v>0.2187516666666667</v>
       </c>
       <c r="H31">
-        <v>0.6715070000000001</v>
+        <v>0.656255</v>
       </c>
       <c r="I31">
-        <v>0.001553304407983986</v>
+        <v>0.001545937238045876</v>
       </c>
       <c r="J31">
-        <v>0.001553304407983986</v>
+        <v>0.001545937238045876</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N31">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O31">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P31">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q31">
-        <v>12.06981984698411</v>
+        <v>27.01300478055166</v>
       </c>
       <c r="R31">
-        <v>108.628378622857</v>
+        <v>243.117043024965</v>
       </c>
       <c r="S31">
-        <v>0.0003184624117138429</v>
+        <v>0.0005339368404828066</v>
       </c>
       <c r="T31">
-        <v>0.0003184624117138429</v>
+        <v>0.0005339368404828064</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.15088</v>
+        <v>0.060574</v>
       </c>
       <c r="H32">
-        <v>0.45264</v>
+        <v>0.181722</v>
       </c>
       <c r="I32">
-        <v>0.001047029602416462</v>
+        <v>0.0004280817773154834</v>
       </c>
       <c r="J32">
-        <v>0.001047029602416462</v>
+        <v>0.0004280817773154835</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>140.5599936666667</v>
+        <v>164.7109273333333</v>
       </c>
       <c r="N32">
-        <v>421.679981</v>
+        <v>494.132782</v>
       </c>
       <c r="O32">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="P32">
-        <v>0.5344312385120821</v>
+        <v>0.4606795312532682</v>
       </c>
       <c r="Q32">
-        <v>21.20769184442667</v>
+        <v>9.977199712289332</v>
       </c>
       <c r="R32">
-        <v>190.86922659984</v>
+        <v>89.794797410604</v>
       </c>
       <c r="S32">
-        <v>0.0005595653271782428</v>
+        <v>0.0001972085125117629</v>
       </c>
       <c r="T32">
-        <v>0.0005595653271782429</v>
+        <v>0.0001972085125117629</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.15088</v>
+        <v>0.060574</v>
       </c>
       <c r="H33">
-        <v>0.45264</v>
+        <v>0.181722</v>
       </c>
       <c r="I33">
-        <v>0.001047029602416462</v>
+        <v>0.0004280817773154834</v>
       </c>
       <c r="J33">
-        <v>0.001047029602416462</v>
+        <v>0.0004280817773154835</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>4.995073</v>
       </c>
       <c r="O33">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661158</v>
       </c>
       <c r="P33">
-        <v>0.006330684808696814</v>
+        <v>0.004656901893661157</v>
       </c>
       <c r="Q33">
-        <v>0.2512188714133333</v>
+        <v>0.1008571839673333</v>
       </c>
       <c r="R33">
-        <v>2.26096984272</v>
+        <v>0.907714655706</v>
       </c>
       <c r="S33">
-        <v>6.628414398273762E-06</v>
+        <v>1.993534839422309E-06</v>
       </c>
       <c r="T33">
-        <v>6.628414398273763E-06</v>
+        <v>1.993534839422309E-06</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.15088</v>
+        <v>0.060574</v>
       </c>
       <c r="H34">
-        <v>0.45264</v>
+        <v>0.181722</v>
       </c>
       <c r="I34">
-        <v>0.001047029602416462</v>
+        <v>0.0004280817773154834</v>
       </c>
       <c r="J34">
-        <v>0.001047029602416462</v>
+        <v>0.0004280817773154835</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>40.23956933333333</v>
+        <v>40.23972833333333</v>
       </c>
       <c r="N34">
-        <v>120.718708</v>
+        <v>120.719185</v>
       </c>
       <c r="O34">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="P34">
-        <v>0.152997181594965</v>
+        <v>0.1125463834517997</v>
       </c>
       <c r="Q34">
-        <v>6.071346221013333</v>
+        <v>2.437481304063333</v>
       </c>
       <c r="R34">
-        <v>54.64211598912</v>
+        <v>21.93733173657</v>
       </c>
       <c r="S34">
-        <v>0.0001601925782162154</v>
+        <v>4.817905585847635E-05</v>
       </c>
       <c r="T34">
-        <v>0.0001601925782162155</v>
+        <v>4.817905585847634E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.15088</v>
+        <v>0.060574</v>
       </c>
       <c r="H35">
-        <v>0.45264</v>
+        <v>0.181722</v>
       </c>
       <c r="I35">
-        <v>0.001047029602416462</v>
+        <v>0.0004280817773154834</v>
       </c>
       <c r="J35">
-        <v>0.001047029602416462</v>
+        <v>0.0004280817773154835</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.952613</v>
+        <v>3.029645666666667</v>
       </c>
       <c r="N35">
-        <v>14.857839</v>
+        <v>9.088937</v>
       </c>
       <c r="O35">
-        <v>0.0188306148173136</v>
+        <v>0.008473607478142355</v>
       </c>
       <c r="P35">
-        <v>0.01883061481731359</v>
+        <v>0.008473607478142353</v>
       </c>
       <c r="Q35">
-        <v>0.7472502494400002</v>
+        <v>0.1835177566126666</v>
       </c>
       <c r="R35">
-        <v>6.725252244960001</v>
+        <v>1.651659809514</v>
       </c>
       <c r="S35">
-        <v>1.97162111454294E-05</v>
+        <v>3.627396949516951E-06</v>
       </c>
       <c r="T35">
-        <v>1.97162111454294E-05</v>
+        <v>3.627396949516951E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.15088</v>
+        <v>0.060574</v>
       </c>
       <c r="H36">
-        <v>0.45264</v>
+        <v>0.181722</v>
       </c>
       <c r="I36">
-        <v>0.001047029602416462</v>
+        <v>0.0004280817773154834</v>
       </c>
       <c r="J36">
-        <v>0.001047029602416462</v>
+        <v>0.0004280817773154835</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>21.668682</v>
+        <v>24.406655</v>
       </c>
       <c r="N36">
-        <v>65.006046</v>
+        <v>73.219965</v>
       </c>
       <c r="O36">
-        <v>0.08238774245854792</v>
+        <v>0.0682629049990468</v>
       </c>
       <c r="P36">
-        <v>0.08238774245854791</v>
+        <v>0.06826290499904679</v>
       </c>
       <c r="Q36">
-        <v>3.26937074016</v>
+        <v>1.47840871997</v>
       </c>
       <c r="R36">
-        <v>29.42433666144</v>
+        <v>13.30567847973</v>
       </c>
       <c r="S36">
-        <v>8.62624052303633E-05</v>
+        <v>2.922210569670996E-05</v>
       </c>
       <c r="T36">
-        <v>8.626240523036331E-05</v>
+        <v>2.922210569670995E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.15088</v>
+        <v>0.060574</v>
       </c>
       <c r="H37">
-        <v>0.45264</v>
+        <v>0.181722</v>
       </c>
       <c r="I37">
-        <v>0.001047029602416462</v>
+        <v>0.0004280817773154834</v>
       </c>
       <c r="J37">
-        <v>0.001047029602416462</v>
+        <v>0.0004280817773154835</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>53.92268366666667</v>
+        <v>123.487081</v>
       </c>
       <c r="N37">
-        <v>161.768051</v>
+        <v>370.461243</v>
       </c>
       <c r="O37">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240819</v>
       </c>
       <c r="P37">
-        <v>0.2050225378083947</v>
+        <v>0.3453806709240818</v>
       </c>
       <c r="Q37">
-        <v>8.135854511626668</v>
+        <v>7.480106444493999</v>
       </c>
       <c r="R37">
-        <v>73.22269060464001</v>
+        <v>67.320958000446</v>
       </c>
       <c r="S37">
-        <v>0.0002146646662479376</v>
+        <v>0.0001478511714595951</v>
       </c>
       <c r="T37">
-        <v>0.0002146646662479376</v>
+        <v>0.0001478511714595951</v>
       </c>
     </row>
   </sheetData>
